--- a/Wheatstone_bridge/E2_Wheatstone_bridge.xlsx
+++ b/Wheatstone_bridge/E2_Wheatstone_bridge.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Wheatstone_bridge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{293A8BBA-1E55-5943-9DB9-48F1A905F92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEF75EC-AD08-3C43-8F0D-9E83AD959024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="820" windowWidth="28000" windowHeight="17440" xr2:uid="{10E23AEB-EE54-BB4B-8B4C-CFB741DE9D5C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aufgabe 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aufgabe 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,6 +34,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,4 +394,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4731E4D6-B0D3-804A-855E-3603D3C9FF98}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Wheatstone_bridge/E2_Wheatstone_bridge.xlsx
+++ b/Wheatstone_bridge/E2_Wheatstone_bridge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Wheatstone_bridge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEF75EC-AD08-3C43-8F0D-9E83AD959024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F162B4E-9D10-2B42-BABE-6B3F52223870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="820" windowWidth="28000" windowHeight="17440" xr2:uid="{10E23AEB-EE54-BB4B-8B4C-CFB741DE9D5C}"/>
+    <workbookView xWindow="1180" yWindow="820" windowWidth="28000" windowHeight="17440" xr2:uid="{10E23AEB-EE54-BB4B-8B4C-CFB741DE9D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe 1" sheetId="1" r:id="rId1"/>
@@ -37,28 +37,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>Spannungsrichtig</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>meas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>supply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in V</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>meas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in mA</t>
+    </r>
+  </si>
+  <si>
+    <t>Stromrichtig</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri-Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri-Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -66,17 +177,178 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -89,10 +361,26 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E65169F-135D-D24D-B6B5-C74C7B92A208}" name="Table1" displayName="Table1" ref="B3:D14" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="B3:D14" xr:uid="{6E65169F-135D-D24D-B6B5-C74C7B92A208}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{82BB06BA-F642-AD44-A198-6B84466A94DC}" name="Usupply in V" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D1680AFB-4CA5-4442-BFCF-DAC3A0717986}" name="Imeas in mA" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3766B630-E0FE-A74D-8B37-4C0CF49832A5}" name="Umeas in V" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -130,7 +418,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -236,7 +524,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -378,7 +666,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -386,13 +674,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4990250E-E36B-B044-AE07-69FC60BFD21B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickTop="1">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>28.7</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44.3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.114</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="8">
+        <v>44</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.151</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>58.4</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="G9" s="8">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>86.6</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>101.2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="G11" s="8">
+        <v>101.4</v>
+      </c>
+      <c r="H11" s="12">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>114.2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>113.8</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>127.4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="8">
+        <v>127.8</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>142.5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="F14" s="9">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>142.1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1.256</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Wheatstone_bridge/E2_Wheatstone_bridge.xlsx
+++ b/Wheatstone_bridge/E2_Wheatstone_bridge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Wheatstone_bridge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F162B4E-9D10-2B42-BABE-6B3F52223870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A61C7-AC47-E043-B1E2-1190B258CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="820" windowWidth="28000" windowHeight="17440" xr2:uid="{10E23AEB-EE54-BB4B-8B4C-CFB741DE9D5C}"/>
+    <workbookView xWindow="1180" yWindow="820" windowWidth="17260" windowHeight="17440" activeTab="1" xr2:uid="{10E23AEB-EE54-BB4B-8B4C-CFB741DE9D5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Spannungsrichtig</t>
   </si>
@@ -113,6 +113,77 @@
   <si>
     <t>Stromrichtig</t>
   </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>in m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t>mess</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri-Light"/>
+      </rPr>
+      <t xml:space="preserve"> in omega</t>
+    </r>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R1 + R2</t>
+  </si>
+  <si>
+    <t>R2 + R3</t>
+  </si>
+  <si>
+    <t>R1 + R2 + R3</t>
+  </si>
+  <si>
+    <t>Flächendiagonal</t>
+  </si>
+  <si>
+    <t>Raumdiagonal</t>
+  </si>
+  <si>
+    <t>Würfelkante</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +193,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +212,11 @@
       <color theme="0"/>
       <name val="Calibri-Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri-Light"/>
     </font>
   </fonts>
   <fills count="5">
@@ -292,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -327,11 +403,168 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri-Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri-Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri-Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -362,18 +595,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E65169F-135D-D24D-B6B5-C74C7B92A208}" name="Table1" displayName="Table1" ref="B3:D14" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E65169F-135D-D24D-B6B5-C74C7B92A208}" name="Table1" displayName="Table1" ref="B3:D14" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="B3:D14" xr:uid="{6E65169F-135D-D24D-B6B5-C74C7B92A208}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{82BB06BA-F642-AD44-A198-6B84466A94DC}" name="Usupply in V" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D1680AFB-4CA5-4442-BFCF-DAC3A0717986}" name="Imeas in mA" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3766B630-E0FE-A74D-8B37-4C0CF49832A5}" name="Umeas in V" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{82BB06BA-F642-AD44-A198-6B84466A94DC}" name="Usupply in V" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{D1680AFB-4CA5-4442-BFCF-DAC3A0717986}" name="Imeas in mA" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{3766B630-E0FE-A74D-8B37-4C0CF49832A5}" name="Umeas in V" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1C92E3A0-FE01-364E-8DFC-6F795FB52BD4}" name="Table2" displayName="Table2" ref="B3:C9" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="B3:C9" xr:uid="{1C92E3A0-FE01-364E-8DFC-6F795FB52BD4}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9E4F5783-EA74-2349-AD8D-49D515DAA288}" name="Lstring in m" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F7E7FA1C-2494-9643-90D1-079486D1D004}" name="Rmess in omega" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCE4115E-C981-BB4A-9C06-BBF259C66234}" name="Table3" displayName="Table3" ref="H21:I27" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="H21:I27" xr:uid="{DCE4115E-C981-BB4A-9C06-BBF259C66234}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FE031AB9-DA5E-1442-A8E6-55ACCD13E196}" name="Lstring in m" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{26B2C293-6DA4-4D43-B677-7A4D1B0479C6}" name="Rmess in omega" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FEA012A4-D191-2747-8DD2-20E2B296F3C5}" name="Table4" displayName="Table4" ref="E3:F9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="3" headerRowBorderDxfId="10">
+  <autoFilter ref="E3:F9" xr:uid="{FEA012A4-D191-2747-8DD2-20E2B296F3C5}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{20948C84-AFB5-2B4B-95DE-1AC704CE361D}" name="Lstring in m" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1C62B5B6-2C34-214B-9A1F-0B4A97CE3122}" name="Rmess in omega" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -674,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4990250E-E36B-B044-AE07-69FC60BFD21B}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -686,15 +961,15 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1">
+    <row r="3" spans="2:8" ht="18" thickBot="1">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -714,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" thickTop="1">
+    <row r="4" spans="2:8" ht="16" thickTop="1">
       <c r="B4" s="4">
         <v>0</v>
       </c>
@@ -734,7 +1009,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="2:8">
       <c r="B5" s="4">
         <v>0.5</v>
       </c>
@@ -754,7 +1029,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="2:8">
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -774,7 +1049,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="2:8">
       <c r="B7" s="4">
         <v>1.5</v>
       </c>
@@ -794,7 +1069,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="2:8">
       <c r="B8" s="4">
         <v>2</v>
       </c>
@@ -814,7 +1089,7 @@
         <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="2:8">
       <c r="B9" s="4">
         <v>2.5</v>
       </c>
@@ -834,7 +1109,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="2:8">
       <c r="B10" s="4">
         <v>3</v>
       </c>
@@ -854,7 +1129,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="2:8">
       <c r="B11" s="4">
         <v>3.5</v>
       </c>
@@ -874,7 +1149,7 @@
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="2:8">
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -894,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="2:8">
       <c r="B13" s="4">
         <v>4.5</v>
       </c>
@@ -914,7 +1189,7 @@
         <v>1.127</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="2:8">
       <c r="B14" s="4">
         <v>5</v>
       </c>
@@ -944,12 +1219,515 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4731E4D6-B0D3-804A-855E-3603D3C9FF98}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="18" thickBot="1">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="16" thickTop="1">
+      <c r="B4" s="14">
+        <v>50</v>
+      </c>
+      <c r="C4" s="14">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15">
+        <v>50</v>
+      </c>
+      <c r="F4" s="16">
+        <v>47</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15">
+        <v>50</v>
+      </c>
+      <c r="I4" s="16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="14">
+        <v>49</v>
+      </c>
+      <c r="C5" s="14">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="17">
+        <v>49</v>
+      </c>
+      <c r="F5" s="18">
+        <v>49</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="17">
+        <v>49</v>
+      </c>
+      <c r="I5" s="18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="14">
+        <v>48</v>
+      </c>
+      <c r="C6" s="14">
+        <v>9</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15">
+        <v>48</v>
+      </c>
+      <c r="F6" s="16">
+        <v>51</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15">
+        <v>48</v>
+      </c>
+      <c r="I6" s="16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="14">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14">
+        <v>8</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="17">
+        <v>51</v>
+      </c>
+      <c r="F7" s="18">
+        <v>45</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="17">
+        <v>51</v>
+      </c>
+      <c r="I7" s="18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="14">
+        <v>52</v>
+      </c>
+      <c r="C8" s="14">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15">
+        <v>52</v>
+      </c>
+      <c r="F8" s="16">
+        <v>43</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15">
+        <v>52</v>
+      </c>
+      <c r="I8" s="16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="14">
+        <v>53</v>
+      </c>
+      <c r="C9" s="14">
+        <v>7</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="19">
+        <v>53</v>
+      </c>
+      <c r="F9" s="20">
+        <v>42</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="19">
+        <v>53</v>
+      </c>
+      <c r="I9" s="20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="18" thickBot="1">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="16" thickTop="1">
+      <c r="B13" s="15">
+        <v>50</v>
+      </c>
+      <c r="C13" s="16">
+        <v>54</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15">
+        <v>50</v>
+      </c>
+      <c r="F13" s="16">
+        <v>128</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15">
+        <v>50</v>
+      </c>
+      <c r="I13" s="16">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="17">
+        <v>49</v>
+      </c>
+      <c r="C14" s="18">
+        <v>57</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="17">
+        <v>49</v>
+      </c>
+      <c r="F14" s="18">
+        <v>130</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="17">
+        <v>49</v>
+      </c>
+      <c r="I14" s="18">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="15">
+        <v>48</v>
+      </c>
+      <c r="C15" s="16">
+        <v>59</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15">
+        <v>48</v>
+      </c>
+      <c r="F15" s="16">
+        <v>139</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15">
+        <v>48</v>
+      </c>
+      <c r="I15" s="16">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="17">
+        <v>51</v>
+      </c>
+      <c r="C16" s="18">
+        <v>53</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="17">
+        <v>51</v>
+      </c>
+      <c r="F16" s="18">
+        <v>122</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="17">
+        <v>51</v>
+      </c>
+      <c r="I16" s="18">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="15">
+        <v>52</v>
+      </c>
+      <c r="C17" s="16">
+        <v>51</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15">
+        <v>52</v>
+      </c>
+      <c r="F17" s="16">
+        <v>119</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15">
+        <v>52</v>
+      </c>
+      <c r="I17" s="16">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="19">
+        <v>53</v>
+      </c>
+      <c r="C18" s="20">
+        <v>49</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="19">
+        <v>53</v>
+      </c>
+      <c r="F18" s="20">
+        <v>113</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="19">
+        <v>53</v>
+      </c>
+      <c r="I18" s="20">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18" thickBot="1">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16" thickTop="1">
+      <c r="B22" s="15">
+        <v>50</v>
+      </c>
+      <c r="C22" s="16">
+        <v>45</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15">
+        <v>50</v>
+      </c>
+      <c r="F22" s="16">
+        <v>50</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14">
+        <v>50</v>
+      </c>
+      <c r="I22" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="17">
+        <v>49</v>
+      </c>
+      <c r="C23" s="18">
+        <v>47</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="17">
+        <v>49</v>
+      </c>
+      <c r="F23" s="18">
+        <v>52</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <v>49</v>
+      </c>
+      <c r="I23" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="15">
+        <v>48</v>
+      </c>
+      <c r="C24" s="16">
+        <v>48</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15">
+        <v>48</v>
+      </c>
+      <c r="F24" s="16">
+        <v>54</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14">
+        <v>48</v>
+      </c>
+      <c r="I24" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="17">
+        <v>51</v>
+      </c>
+      <c r="C25" s="18">
+        <v>51</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="17">
+        <v>51</v>
+      </c>
+      <c r="F25" s="18">
+        <v>56</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14">
+        <v>51</v>
+      </c>
+      <c r="I25" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="15">
+        <v>52</v>
+      </c>
+      <c r="C26" s="16">
+        <v>53</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15">
+        <v>52</v>
+      </c>
+      <c r="F26" s="16">
+        <v>59</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14">
+        <v>52</v>
+      </c>
+      <c r="I26" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="19">
+        <v>53</v>
+      </c>
+      <c r="C27" s="20">
+        <v>55</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="19">
+        <v>53</v>
+      </c>
+      <c r="F27" s="20">
+        <v>61</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14">
+        <v>53</v>
+      </c>
+      <c r="I27" s="14">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Wheatstone_bridge/E2_Wheatstone_bridge.xlsx
+++ b/Wheatstone_bridge/E2_Wheatstone_bridge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huyenanh/git_repos/MB14_Classical_mechanics/Wheatstone_bridge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A61C7-AC47-E043-B1E2-1190B258CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C816B35-A94D-9945-A1E0-783732746A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="820" windowWidth="17260" windowHeight="17440" activeTab="1" xr2:uid="{10E23AEB-EE54-BB4B-8B4C-CFB741DE9D5C}"/>
   </bookViews>
@@ -190,8 +190,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -373,55 +373,55 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -429,18 +429,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -519,10 +507,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -559,26 +548,37 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -595,58 +595,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E65169F-135D-D24D-B6B5-C74C7B92A208}" name="Table1" displayName="Table1" ref="B3:D14" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="B3:D14" xr:uid="{6E65169F-135D-D24D-B6B5-C74C7B92A208}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E65169F-135D-D24D-B6B5-C74C7B92A208}" name="Table1" displayName="Table1" ref="A3:C14" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="A3:C14" xr:uid="{6E65169F-135D-D24D-B6B5-C74C7B92A208}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{82BB06BA-F642-AD44-A198-6B84466A94DC}" name="Usupply in V" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{D1680AFB-4CA5-4442-BFCF-DAC3A0717986}" name="Imeas in mA" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{3766B630-E0FE-A74D-8B37-4C0CF49832A5}" name="Umeas in V" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{82BB06BA-F642-AD44-A198-6B84466A94DC}" name="Usupply in V" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D1680AFB-4CA5-4442-BFCF-DAC3A0717986}" name="Imeas in mA" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3766B630-E0FE-A74D-8B37-4C0CF49832A5}" name="Umeas in V" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1C92E3A0-FE01-364E-8DFC-6F795FB52BD4}" name="Table2" displayName="Table2" ref="B3:C9" totalsRowShown="0" dataDxfId="6">
-  <autoFilter ref="B3:C9" xr:uid="{1C92E3A0-FE01-364E-8DFC-6F795FB52BD4}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1C92E3A0-FE01-364E-8DFC-6F795FB52BD4}" name="Table2" displayName="Table2" ref="A3:B9" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A3:B9" xr:uid="{1C92E3A0-FE01-364E-8DFC-6F795FB52BD4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9E4F5783-EA74-2349-AD8D-49D515DAA288}" name="Lstring in m" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{F7E7FA1C-2494-9643-90D1-079486D1D004}" name="Rmess in omega" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{9E4F5783-EA74-2349-AD8D-49D515DAA288}" name="Lstring in m" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{F7E7FA1C-2494-9643-90D1-079486D1D004}" name="Rmess in omega" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCE4115E-C981-BB4A-9C06-BBF259C66234}" name="Table3" displayName="Table3" ref="H21:I27" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="H21:I27" xr:uid="{DCE4115E-C981-BB4A-9C06-BBF259C66234}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DCE4115E-C981-BB4A-9C06-BBF259C66234}" name="Table3" displayName="Table3" ref="G21:H27" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="G21:H27" xr:uid="{DCE4115E-C981-BB4A-9C06-BBF259C66234}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FE031AB9-DA5E-1442-A8E6-55ACCD13E196}" name="Lstring in m" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{26B2C293-6DA4-4D43-B677-7A4D1B0479C6}" name="Rmess in omega" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{FE031AB9-DA5E-1442-A8E6-55ACCD13E196}" name="Lstring in m" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{26B2C293-6DA4-4D43-B677-7A4D1B0479C6}" name="Rmess in omega" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FEA012A4-D191-2747-8DD2-20E2B296F3C5}" name="Table4" displayName="Table4" ref="E3:F9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="3" headerRowBorderDxfId="10">
-  <autoFilter ref="E3:F9" xr:uid="{FEA012A4-D191-2747-8DD2-20E2B296F3C5}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FEA012A4-D191-2747-8DD2-20E2B296F3C5}" name="Table4" displayName="Table4" ref="D3:E9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="2" headerRowBorderDxfId="3">
+  <autoFilter ref="D3:E9" xr:uid="{FEA012A4-D191-2747-8DD2-20E2B296F3C5}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{20948C84-AFB5-2B4B-95DE-1AC704CE361D}" name="Lstring in m" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1C62B5B6-2C34-214B-9A1F-0B4A97CE3122}" name="Rmess in omega" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{20948C84-AFB5-2B4B-95DE-1AC704CE361D}" name="Lstring in m" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{1C62B5B6-2C34-214B-9A1F-0B4A97CE3122}" name="Rmess in omega" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,263 +949,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4990250E-E36B-B044-AE07-69FC60BFD21B}">
-  <dimension ref="B2:H14"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
-      <c r="B2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18" thickBot="1">
+    <row r="3" spans="1:7" ht="18" thickBot="1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="16" thickTop="1">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>28.7</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>44.3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.114</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="8">
+        <v>44</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="B8" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.151</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>58.4</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.185</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="B10" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>86.6</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>101.2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>101.4</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4">
+        <v>114.2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E12" s="5">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>113.8</v>
+      </c>
+      <c r="G12" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16" thickTop="1">
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>15.4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2E-3</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>16.3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="8">
-        <v>15.4</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>29.8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>28.7</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44.3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.114</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="8">
-        <v>44</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0.38200000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.151</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6">
-        <v>58.4</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0.50800000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.185</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="G9" s="8">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="F10" s="5">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>86.6</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>101.2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="G11" s="8">
-        <v>101.4</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0.88900000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>114.2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4</v>
-      </c>
-      <c r="G12" s="6">
-        <v>113.8</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>4.5</v>
+      </c>
       <c r="B13" s="4">
+        <v>127.4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E13" s="7">
         <v>4.5</v>
       </c>
-      <c r="C13" s="4">
-        <v>127.4</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="F13" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="8">
         <v>127.8</v>
       </c>
-      <c r="H13" s="12">
+      <c r="G13" s="12">
         <v>1.127</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>5</v>
+      </c>
       <c r="B14" s="4">
+        <v>142.5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="E14" s="9">
         <v>5</v>
       </c>
-      <c r="C14" s="4">
-        <v>142.5</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="F14" s="9">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F14" s="10">
         <v>142.1</v>
       </c>
-      <c r="H14" s="13">
+      <c r="G14" s="13">
         <v>1.256</v>
       </c>
     </row>
@@ -1219,506 +1218,505 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4731E4D6-B0D3-804A-855E-3603D3C9FF98}">
-  <dimension ref="B2:I27"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="18" thickBot="1">
+    <row r="3" spans="1:8" ht="18" thickBot="1">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="16" thickTop="1">
+      <c r="A4" s="14">
+        <v>50</v>
+      </c>
+      <c r="B4" s="14">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15">
+        <v>50</v>
+      </c>
+      <c r="E4" s="16">
+        <v>47</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15">
+        <v>50</v>
+      </c>
+      <c r="H4" s="16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14">
+        <v>49</v>
+      </c>
+      <c r="B5" s="14">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="17">
+        <v>49</v>
+      </c>
+      <c r="E5" s="18">
+        <v>49</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="17">
+        <v>49</v>
+      </c>
+      <c r="H5" s="18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14">
+        <v>48</v>
+      </c>
+      <c r="B6" s="14">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15">
+        <v>48</v>
+      </c>
+      <c r="E6" s="16">
+        <v>51</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15">
+        <v>48</v>
+      </c>
+      <c r="H6" s="16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14">
+        <v>51</v>
+      </c>
+      <c r="B7" s="14">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="17">
+        <v>51</v>
+      </c>
+      <c r="E7" s="18">
+        <v>45</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="17">
+        <v>51</v>
+      </c>
+      <c r="H7" s="18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14">
+        <v>52</v>
+      </c>
+      <c r="B8" s="14">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15">
+        <v>52</v>
+      </c>
+      <c r="E8" s="16">
+        <v>43</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15">
+        <v>52</v>
+      </c>
+      <c r="H8" s="16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14">
+        <v>53</v>
+      </c>
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="19">
+        <v>53</v>
+      </c>
+      <c r="E9" s="20">
+        <v>42</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="19">
+        <v>53</v>
+      </c>
+      <c r="H9" s="20">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" thickBot="1">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="16" thickTop="1">
-      <c r="B4" s="14">
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" thickTop="1">
+      <c r="A13" s="15">
         <v>50</v>
       </c>
-      <c r="C4" s="14">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15">
+      <c r="B13" s="16">
+        <v>54</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15">
         <v>50</v>
       </c>
-      <c r="F4" s="16">
+      <c r="E13" s="16">
+        <v>128</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15">
+        <v>50</v>
+      </c>
+      <c r="H13" s="16">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="17">
+        <v>49</v>
+      </c>
+      <c r="B14" s="18">
+        <v>57</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="17">
+        <v>49</v>
+      </c>
+      <c r="E14" s="18">
+        <v>130</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="17">
+        <v>49</v>
+      </c>
+      <c r="H14" s="18">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15">
+        <v>48</v>
+      </c>
+      <c r="B15" s="16">
+        <v>59</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15">
+        <v>48</v>
+      </c>
+      <c r="E15" s="16">
+        <v>139</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15">
+        <v>48</v>
+      </c>
+      <c r="H15" s="16">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="17">
+        <v>51</v>
+      </c>
+      <c r="B16" s="18">
+        <v>53</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="17">
+        <v>51</v>
+      </c>
+      <c r="E16" s="18">
+        <v>122</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="17">
+        <v>51</v>
+      </c>
+      <c r="H16" s="18">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15">
+        <v>52</v>
+      </c>
+      <c r="B17" s="16">
+        <v>51</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15">
+        <v>52</v>
+      </c>
+      <c r="E17" s="16">
+        <v>119</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15">
+        <v>52</v>
+      </c>
+      <c r="H17" s="16">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="19">
+        <v>53</v>
+      </c>
+      <c r="B18" s="20">
+        <v>49</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="19">
+        <v>53</v>
+      </c>
+      <c r="E18" s="20">
+        <v>113</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="19">
+        <v>53</v>
+      </c>
+      <c r="H18" s="20">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16" thickTop="1">
+      <c r="A22" s="15">
+        <v>50</v>
+      </c>
+      <c r="B22" s="16">
+        <v>45</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15">
+        <v>50</v>
+      </c>
+      <c r="E22" s="16">
+        <v>50</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14">
+        <v>50</v>
+      </c>
+      <c r="H22" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="17">
+        <v>49</v>
+      </c>
+      <c r="B23" s="18">
         <v>47</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15">
-        <v>50</v>
-      </c>
-      <c r="I4" s="16">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="14">
+      <c r="C23" s="14"/>
+      <c r="D23" s="17">
         <v>49</v>
       </c>
-      <c r="C5" s="14">
-        <v>8</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="17">
+      <c r="E23" s="18">
+        <v>52</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14">
         <v>49</v>
       </c>
-      <c r="F5" s="18">
-        <v>49</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="17">
-        <v>49</v>
-      </c>
-      <c r="I5" s="18">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="14">
+      <c r="H23" s="14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="15">
         <v>48</v>
       </c>
-      <c r="C6" s="14">
-        <v>9</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15">
+      <c r="B24" s="16">
         <v>48</v>
       </c>
-      <c r="F6" s="16">
+      <c r="C24" s="14"/>
+      <c r="D24" s="15">
+        <v>48</v>
+      </c>
+      <c r="E24" s="16">
+        <v>54</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14">
+        <v>48</v>
+      </c>
+      <c r="H24" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="17">
         <v>51</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15">
-        <v>48</v>
-      </c>
-      <c r="I6" s="16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="14">
+      <c r="B25" s="18">
         <v>51</v>
       </c>
-      <c r="C7" s="14">
-        <v>8</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="17">
+      <c r="C25" s="14"/>
+      <c r="D25" s="17">
         <v>51</v>
       </c>
-      <c r="F7" s="18">
-        <v>45</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="17">
+      <c r="E25" s="18">
+        <v>56</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14">
         <v>51</v>
       </c>
-      <c r="I7" s="18">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="14">
+      <c r="H25" s="14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="15">
         <v>52</v>
       </c>
-      <c r="C8" s="14">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15">
+      <c r="B26" s="16">
+        <v>53</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15">
         <v>52</v>
       </c>
-      <c r="F8" s="16">
-        <v>43</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15">
+      <c r="E26" s="16">
+        <v>59</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
         <v>52</v>
       </c>
-      <c r="I8" s="16">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="14">
+      <c r="H26" s="14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="19">
         <v>53</v>
       </c>
-      <c r="C9" s="14">
-        <v>7</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="19">
+      <c r="B27" s="20">
+        <v>55</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="19">
         <v>53</v>
       </c>
-      <c r="F9" s="20">
-        <v>42</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="19">
+      <c r="E27" s="20">
+        <v>61</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
         <v>53</v>
       </c>
-      <c r="I9" s="20">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="18" thickBot="1">
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="16" thickTop="1">
-      <c r="B13" s="15">
-        <v>50</v>
-      </c>
-      <c r="C13" s="16">
-        <v>54</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15">
-        <v>50</v>
-      </c>
-      <c r="F13" s="16">
-        <v>128</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15">
-        <v>50</v>
-      </c>
-      <c r="I13" s="16">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="17">
-        <v>49</v>
-      </c>
-      <c r="C14" s="18">
-        <v>57</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="17">
-        <v>49</v>
-      </c>
-      <c r="F14" s="18">
-        <v>130</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="17">
-        <v>49</v>
-      </c>
-      <c r="I14" s="18">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="15">
-        <v>48</v>
-      </c>
-      <c r="C15" s="16">
-        <v>59</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15">
-        <v>48</v>
-      </c>
-      <c r="F15" s="16">
-        <v>139</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15">
-        <v>48</v>
-      </c>
-      <c r="I15" s="16">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="17">
-        <v>51</v>
-      </c>
-      <c r="C16" s="18">
-        <v>53</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="17">
-        <v>51</v>
-      </c>
-      <c r="F16" s="18">
-        <v>122</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="17">
-        <v>51</v>
-      </c>
-      <c r="I16" s="18">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="15">
-        <v>52</v>
-      </c>
-      <c r="C17" s="16">
-        <v>51</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15">
-        <v>52</v>
-      </c>
-      <c r="F17" s="16">
-        <v>119</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15">
-        <v>52</v>
-      </c>
-      <c r="I17" s="16">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="19">
-        <v>53</v>
-      </c>
-      <c r="C18" s="20">
-        <v>49</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="19">
-        <v>53</v>
-      </c>
-      <c r="F18" s="20">
-        <v>113</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="19">
-        <v>53</v>
-      </c>
-      <c r="I18" s="20">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="18" thickBot="1">
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="16" thickTop="1">
-      <c r="B22" s="15">
-        <v>50</v>
-      </c>
-      <c r="C22" s="16">
-        <v>45</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15">
-        <v>50</v>
-      </c>
-      <c r="F22" s="16">
-        <v>50</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14">
-        <v>50</v>
-      </c>
-      <c r="I22" s="14">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="17">
-        <v>49</v>
-      </c>
-      <c r="C23" s="18">
-        <v>47</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="17">
-        <v>49</v>
-      </c>
-      <c r="F23" s="18">
-        <v>52</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <v>49</v>
-      </c>
-      <c r="I23" s="14">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="15">
-        <v>48</v>
-      </c>
-      <c r="C24" s="16">
-        <v>48</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="15">
-        <v>48</v>
-      </c>
-      <c r="F24" s="16">
-        <v>54</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14">
-        <v>48</v>
-      </c>
-      <c r="I24" s="14">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="17">
-        <v>51</v>
-      </c>
-      <c r="C25" s="18">
-        <v>51</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="17">
-        <v>51</v>
-      </c>
-      <c r="F25" s="18">
-        <v>56</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <v>51</v>
-      </c>
-      <c r="I25" s="14">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="15">
-        <v>52</v>
-      </c>
-      <c r="C26" s="16">
-        <v>53</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15">
-        <v>52</v>
-      </c>
-      <c r="F26" s="16">
-        <v>59</v>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14">
-        <v>52</v>
-      </c>
-      <c r="I26" s="14">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="19">
-        <v>53</v>
-      </c>
-      <c r="C27" s="20">
-        <v>55</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="19">
-        <v>53</v>
-      </c>
-      <c r="F27" s="20">
-        <v>61</v>
-      </c>
-      <c r="G27" s="14"/>
       <c r="H27" s="14">
-        <v>53</v>
-      </c>
-      <c r="I27" s="14">
         <v>35</v>
       </c>
     </row>
